--- a/result/gr75_06_simulated/details.xlsx
+++ b/result/gr75_06_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6281676292419434</v>
+        <v>0.5353138446807861</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5994253691733</v>
+        <v>803.1408381935562</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02542973270132761</v>
+        <v>0.02505393693237878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02229273398461862</v>
+        <v>0.02246502765404476</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0199548874938514</v>
+        <v>0.02083550176233098</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01981768579216503</v>
+        <v>0.01969277238465683</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01880473400814024</v>
+        <v>0.01898122342094665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01828854621767797</v>
+        <v>0.0185002006178746</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01807279843336602</v>
+        <v>0.01773418454330555</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01807279843336602</v>
+        <v>0.01746541763036902</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01761409884725528</v>
+        <v>0.01745413728520581</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01724738134038843</v>
+        <v>0.01724468264969401</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01695272165581305</v>
+        <v>0.01695302296185638</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01658192728008776</v>
+        <v>0.01663411464264217</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01625463643794161</v>
+        <v>0.01640426971632253</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01618777361681074</v>
+        <v>0.01640426971632253</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01598126653247823</v>
+        <v>0.01618992998665489</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01581538976819913</v>
+        <v>0.01607052020018998</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01581538976819913</v>
+        <v>0.01591614705424874</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01561314104065926</v>
+        <v>0.0158294161121673</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01554480086914015</v>
+        <v>0.01570273532001202</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01546977437366809</v>
+        <v>0.01565576682638511</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6097378730773926</v>
+        <v>0.5312526226043701</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>788.0751358062771</v>
+        <v>789.5386238847095</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02602563986368808</v>
+        <v>0.02559950623092262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02189128524591792</v>
+        <v>0.02168771787734555</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02161266982550425</v>
+        <v>0.02048123767485033</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02015502853815984</v>
+        <v>0.01901088199968131</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01874414911734429</v>
+        <v>0.01841867037007175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01874414911734429</v>
+        <v>0.0177010743425118</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01739885550435958</v>
+        <v>0.01675446221336222</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01739885550435958</v>
+        <v>0.01637244860416344</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01739885550435958</v>
+        <v>0.01617700312789199</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01695494143492233</v>
+        <v>0.01617700312789199</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01615433585244726</v>
+        <v>0.01617700312789199</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0159985845597581</v>
+        <v>0.01617700312789199</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0159985845597581</v>
+        <v>0.01617700312789199</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01575736609429753</v>
+        <v>0.01602279062372938</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01575736609429753</v>
+        <v>0.01583664673438899</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01573671320738062</v>
+        <v>0.01582618634731991</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01558833707746011</v>
+        <v>0.0155893302092848</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01552576122369386</v>
+        <v>0.01548234052104845</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01540856888489059</v>
+        <v>0.01539061644999433</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01536208841727636</v>
+        <v>0.01539061644999433</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5699760913848877</v>
+        <v>0.6836338043212891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>832.6052393224563</v>
+        <v>793.8085322804272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02621705391029826</v>
+        <v>0.02535686600970501</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02256018800051762</v>
+        <v>0.02200955149834611</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02180804370548335</v>
+        <v>0.02141151137851346</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02159202575864262</v>
+        <v>0.0201664722816641</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01997339107808859</v>
+        <v>0.01978630739698559</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01963685320666148</v>
+        <v>0.01953727676689875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01816992211341573</v>
+        <v>0.01889019843019909</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01816992211341573</v>
+        <v>0.01746110512896444</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01766597366845649</v>
+        <v>0.01746110512896444</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0176641939392708</v>
+        <v>0.01699841726327672</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01707563334299804</v>
+        <v>0.01621235779265442</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01701838295558642</v>
+        <v>0.01621235779265442</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01693154513289788</v>
+        <v>0.01615936388898752</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01666734205038874</v>
+        <v>0.0160342037633635</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01666734205038874</v>
+        <v>0.01593657690450387</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01666734205038874</v>
+        <v>0.01585205863232497</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01659942460615344</v>
+        <v>0.01567011607739017</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01637313520872659</v>
+        <v>0.01567011607739017</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01634878689716791</v>
+        <v>0.01560659119660802</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01623012162421942</v>
+        <v>0.0154738505317822</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6840367317199707</v>
+        <v>0.5312228202819824</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>795.6359457678718</v>
+        <v>801.3703015535812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02574496067084097</v>
+        <v>0.02577249053104588</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02256332994999112</v>
+        <v>0.02248538928952186</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02036119757927218</v>
+        <v>0.02125607514862765</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01980812598898023</v>
+        <v>0.01999601627087041</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01852696740056577</v>
+        <v>0.01880160943514637</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01852696740056577</v>
+        <v>0.01807362411507225</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01811092053568849</v>
+        <v>0.01747030820753502</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01736449235350561</v>
+        <v>0.01730619267266457</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01736449235350561</v>
+        <v>0.01719220274534775</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01695393715184338</v>
+        <v>0.01685570182261403</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01659880770252665</v>
+        <v>0.01685570182261403</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01610119951533198</v>
+        <v>0.01671587210394608</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01610119951533198</v>
+        <v>0.01625546335167411</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01610119951533198</v>
+        <v>0.01619911783577108</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0159581452968724</v>
+        <v>0.01603895704417158</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01586362806170293</v>
+        <v>0.01588370135371283</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01555553998476557</v>
+        <v>0.01581194510987561</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01553994006007153</v>
+        <v>0.01578420799246556</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01553994006007153</v>
+        <v>0.01562193222198817</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01550947262705403</v>
+        <v>0.01562125344159027</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7059853076934814</v>
+        <v>0.5625004768371582</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>819.9459557522914</v>
+        <v>807.5334383843237</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02640429685742704</v>
+        <v>0.02546738654006984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02224115009081358</v>
+        <v>0.02245439111919036</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02019008082629074</v>
+        <v>0.02109085525892033</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01972658157796887</v>
+        <v>0.02022568393470204</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01917946032501496</v>
+        <v>0.01914361242287138</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01856035556637333</v>
+        <v>0.01860550993764146</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01721889419248338</v>
+        <v>0.01841023889518831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01688979083984925</v>
+        <v>0.01795917517283499</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01688979083984925</v>
+        <v>0.01756371529948447</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01688979083984925</v>
+        <v>0.01728365863864195</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01669667926334605</v>
+        <v>0.01660389847926487</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01664743468732121</v>
+        <v>0.01635024825988327</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01664743468732121</v>
+        <v>0.01635024825988327</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0164756721231837</v>
+        <v>0.01598842139057651</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01623016118459659</v>
+        <v>0.01598842139057651</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01623016118459659</v>
+        <v>0.01598842139057651</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01623016118459659</v>
+        <v>0.01597224277457512</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01601845888956729</v>
+        <v>0.01583377735515007</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01601845888956729</v>
+        <v>0.01580070985858656</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01598335196398229</v>
+        <v>0.01574139256109792</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6960151195526123</v>
+        <v>0.5312933921813965</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>784.1283718660943</v>
+        <v>775.2565303326628</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02589094057043579</v>
+        <v>0.02608602654670392</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02178434371342139</v>
+        <v>0.0223985403507304</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01943565922175974</v>
+        <v>0.02011222203093225</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01879891745706107</v>
+        <v>0.01904699152736205</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01801320967132981</v>
+        <v>0.01886329720307902</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01707360402761306</v>
+        <v>0.01827745157508133</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01707360402761306</v>
+        <v>0.01827745157508133</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01707360402761306</v>
+        <v>0.0179762144906939</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01698599356452638</v>
+        <v>0.01664710538300715</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01688700194811848</v>
+        <v>0.01650296802066354</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0165887321794162</v>
+        <v>0.01650296802066354</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01616383513408741</v>
+        <v>0.01636419394695139</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01599044366253009</v>
+        <v>0.01595454432660061</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01593690551620026</v>
+        <v>0.0158678969646545</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01593690551620026</v>
+        <v>0.01553002158270828</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01577757228434834</v>
+        <v>0.01551894556156603</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01556797237969747</v>
+        <v>0.01537415003993115</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01548552150816681</v>
+        <v>0.01531354222624334</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01533554130974734</v>
+        <v>0.01525300206322401</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01528515344768215</v>
+        <v>0.0151122130669135</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5589642524719238</v>
+        <v>0.5624563694000244</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>781.605420800206</v>
+        <v>820.0487380709783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02520515203923856</v>
+        <v>0.02563719997962122</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02199289839537511</v>
+        <v>0.02164900298313385</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0196561419840217</v>
+        <v>0.02072975242787048</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01920982944143593</v>
+        <v>0.02000577949120131</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01814720973129831</v>
+        <v>0.01930235501259281</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01774674866114443</v>
+        <v>0.01930235501259281</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01774115144481327</v>
+        <v>0.01880554607114199</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01743972389064111</v>
+        <v>0.01831725960957782</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01743972389064111</v>
+        <v>0.01773085012811446</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01664255672089062</v>
+        <v>0.01735293645063792</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01631960313038978</v>
+        <v>0.01714591294686876</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0162209097035472</v>
+        <v>0.01689569087409396</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01599010296752703</v>
+        <v>0.01689569087409396</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01599010296752703</v>
+        <v>0.01673012066488883</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01568093468654993</v>
+        <v>0.01645162515193617</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01553720095030773</v>
+        <v>0.01638039478006954</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01550343865835917</v>
+        <v>0.01630653246013695</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01525468929443317</v>
+        <v>0.01622791324024736</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01525468929443317</v>
+        <v>0.01607319697080467</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01523597311501376</v>
+        <v>0.01598535551795279</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5390241146087646</v>
+        <v>0.5312776565551758</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>790.8851050255435</v>
+        <v>784.8310951907897</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02551348271232827</v>
+        <v>0.02591065669243635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02146119759274061</v>
+        <v>0.02223379323731333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01999143589979573</v>
+        <v>0.01956148053804881</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01942740893158299</v>
+        <v>0.01956148053804881</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01825600669396533</v>
+        <v>0.01842586507020793</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01825600669396533</v>
+        <v>0.01825037756084482</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01728932503506617</v>
+        <v>0.01768605830665944</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01721304050897817</v>
+        <v>0.01737462389079644</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0170325735447407</v>
+        <v>0.01737462389079644</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01673172262807357</v>
+        <v>0.01686365110993961</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01653334307855991</v>
+        <v>0.0166245181508477</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01637298101131258</v>
+        <v>0.01653245797374103</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01632282492170172</v>
+        <v>0.01623756744613675</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01606585954685336</v>
+        <v>0.01581101611768909</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01606585954685336</v>
+        <v>0.01581101611768909</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01590117338936361</v>
+        <v>0.01568520810985792</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01567005948830453</v>
+        <v>0.01558325028567654</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01555509650930879</v>
+        <v>0.01541198306736381</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01544593505506388</v>
+        <v>0.01541198306736381</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01541686364572209</v>
+        <v>0.01529885175810506</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5610017776489258</v>
+        <v>0.5312433242797852</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>800.4896643352258</v>
+        <v>773.7485516580746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02520206244095811</v>
+        <v>0.02636205806991246</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0217864697546875</v>
+        <v>0.02210941316145429</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01929943965177931</v>
+        <v>0.02093684523174621</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01792353715039362</v>
+        <v>0.01953744627446347</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01792353715039362</v>
+        <v>0.01776551551765731</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01769461144240292</v>
+        <v>0.01776551551765731</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01769461144240292</v>
+        <v>0.01713020684827979</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01769461144240292</v>
+        <v>0.01713020684827979</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01729491275973479</v>
+        <v>0.01662503900202453</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01712183703133192</v>
+        <v>0.01612980597521375</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01683456480997372</v>
+        <v>0.01612980597521375</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01658053445558632</v>
+        <v>0.01568724239185356</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01646936074612944</v>
+        <v>0.01568724239185356</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01625021630032945</v>
+        <v>0.01563689501421372</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01617860462712748</v>
+        <v>0.01549039279099645</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01593744514516492</v>
+        <v>0.01530203783460348</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01585367544272475</v>
+        <v>0.01522993583452067</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01571465088968855</v>
+        <v>0.01515059117679526</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01566519517788743</v>
+        <v>0.01514320840494613</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01560408702407847</v>
+        <v>0.01508281777111256</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5529918670654297</v>
+        <v>0.5312361717224121</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>815.7164284593127</v>
+        <v>788.5689962475135</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02574678024879502</v>
+        <v>0.02569595041530975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02227386999790942</v>
+        <v>0.02247703006053823</v>
       </c>
       <c r="H11" t="n">
-        <v>0.020903367634459</v>
+        <v>0.02026064328427834</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0198732947272486</v>
+        <v>0.01912911677479032</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01963484394689062</v>
+        <v>0.01832675122114596</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0185466857851891</v>
+        <v>0.0174994554230277</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01798800449830527</v>
+        <v>0.01749289000651258</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01719884265641373</v>
+        <v>0.01688983031006103</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01708062543270953</v>
+        <v>0.01688983031006103</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01707069503608839</v>
+        <v>0.01688983031006103</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01703925614601945</v>
+        <v>0.01661882813474246</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01679315706946584</v>
+        <v>0.0165810115908937</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01656324310799469</v>
+        <v>0.01633641709761944</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01656324310799469</v>
+        <v>0.0159077036375726</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01626221973693874</v>
+        <v>0.01586056416672161</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01621688055635678</v>
+        <v>0.0158088269644679</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01604334162034336</v>
+        <v>0.01563120399426205</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01604334162034336</v>
+        <v>0.01555776964898225</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01598084729899728</v>
+        <v>0.01551727940997449</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01590090503819323</v>
+        <v>0.01537171532646225</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_06_simulated/details.xlsx
+++ b/result/gr75_06_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5353138446807861</v>
+        <v>1.127002239227295</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>803.1408381935562</v>
+        <v>985.8829405616561</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02505393693237878</v>
+        <v>0.03969696128134963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02246502765404476</v>
+        <v>0.03401975340484398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02083550176233098</v>
+        <v>0.02989338540883184</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01969277238465683</v>
+        <v>0.02650547962996064</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01898122342094665</v>
+        <v>0.02457350479566378</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0185002006178746</v>
+        <v>0.02390540187109651</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01773418454330555</v>
+        <v>0.02236365303176127</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01746541763036902</v>
+        <v>0.02158710463625446</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01745413728520581</v>
+        <v>0.02103448310799276</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01724468264969401</v>
+        <v>0.02042708402507967</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01695302296185638</v>
+        <v>0.02009963610571553</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01663411464264217</v>
+        <v>0.01981964456032652</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01640426971632253</v>
+        <v>0.01967325243910106</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01640426971632253</v>
+        <v>0.01956398952631518</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01618992998665489</v>
+        <v>0.01944244484830682</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01607052020018998</v>
+        <v>0.01936789598534594</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01591614705424874</v>
+        <v>0.0193551825010869</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0158294161121673</v>
+        <v>0.01932175538044932</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01570273532001202</v>
+        <v>0.019254628323309</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01565576682638511</v>
+        <v>0.01921799104408686</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5312526226043701</v>
+        <v>1.415026187896729</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>789.5386238847095</v>
+        <v>1013.915265384405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02559950623092262</v>
+        <v>0.04032535511008972</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02168771787734555</v>
+        <v>0.03388733915140892</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02048123767485033</v>
+        <v>0.03034542672478656</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01901088199968131</v>
+        <v>0.02769445247307296</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01841867037007175</v>
+        <v>0.02568364894542545</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0177010743425118</v>
+        <v>0.02482453885459867</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01675446221336222</v>
+        <v>0.02348770285554721</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01637244860416344</v>
+        <v>0.02274887836130471</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01617700312789199</v>
+        <v>0.02198987505479343</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01617700312789199</v>
+        <v>0.02152066233582324</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01617700312789199</v>
+        <v>0.02097162971737303</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01617700312789199</v>
+        <v>0.02094647104481593</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01617700312789199</v>
+        <v>0.02065181858565355</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01602279062372938</v>
+        <v>0.02033824458099496</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01583664673438899</v>
+        <v>0.0201020281474318</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01582618634731991</v>
+        <v>0.01997925748846828</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0155893302092848</v>
+        <v>0.01994153299697672</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01548234052104845</v>
+        <v>0.019872346308928</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01539061644999433</v>
+        <v>0.01980592672057396</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01539061644999433</v>
+        <v>0.01976443012445233</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6836338043212891</v>
+        <v>1.041002035140991</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>793.8085322804272</v>
+        <v>979.6748383368395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02535686600970501</v>
+        <v>0.03881061254419911</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02200955149834611</v>
+        <v>0.03411561577836814</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02141151137851346</v>
+        <v>0.02812917005638697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0201664722816641</v>
+        <v>0.02785271414410497</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01978630739698559</v>
+        <v>0.02504658912375245</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01953727676689875</v>
+        <v>0.02354919950034498</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01889019843019909</v>
+        <v>0.02332228827230827</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01746110512896444</v>
+        <v>0.02220692149746637</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01746110512896444</v>
+        <v>0.02165051289253221</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01699841726327672</v>
+        <v>0.0210261449701857</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01621235779265442</v>
+        <v>0.0203865675054443</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01621235779265442</v>
+        <v>0.02018300753583992</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01615936388898752</v>
+        <v>0.01968506000186004</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0160342037633635</v>
+        <v>0.01968506000186004</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01593657690450387</v>
+        <v>0.01953695492108131</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01585205863232497</v>
+        <v>0.01943105049729861</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01567011607739017</v>
+        <v>0.01931675587423946</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01567011607739017</v>
+        <v>0.01914497613596267</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01560659119660802</v>
+        <v>0.01914497613596267</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0154738505317822</v>
+        <v>0.01909697540617621</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5312228202819824</v>
+        <v>1.061997175216675</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>801.3703015535812</v>
+        <v>1000.61663267893</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02577249053104588</v>
+        <v>0.04104404569334012</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02248538928952186</v>
+        <v>0.03272533045882452</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02125607514862765</v>
+        <v>0.02933368073304323</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01999601627087041</v>
+        <v>0.02707185621832879</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01880160943514637</v>
+        <v>0.02587792970432929</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01807362411507225</v>
+        <v>0.02503686503593363</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01747030820753502</v>
+        <v>0.023200479219436</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01730619267266457</v>
+        <v>0.02254535743476124</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01719220274534775</v>
+        <v>0.02209033424821177</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01685570182261403</v>
+        <v>0.02154523753347399</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01685570182261403</v>
+        <v>0.02124117695627828</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01671587210394608</v>
+        <v>0.02051786685887327</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01625546335167411</v>
+        <v>0.02038000764534746</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01619911783577108</v>
+        <v>0.02021246601500641</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01603895704417158</v>
+        <v>0.01998708578856482</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01588370135371283</v>
+        <v>0.01981781659060941</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01581194510987561</v>
+        <v>0.01972391046286302</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01578420799246556</v>
+        <v>0.01965688503021192</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01562193222198817</v>
+        <v>0.01958273323166826</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01562125344159027</v>
+        <v>0.01950519751810779</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5625004768371582</v>
+        <v>1.292985677719116</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>807.5334383843237</v>
+        <v>1001.293458640235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02546738654006984</v>
+        <v>0.04032861477802605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02245439111919036</v>
+        <v>0.03376323281822059</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02109085525892033</v>
+        <v>0.02962979461653837</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02022568393470204</v>
+        <v>0.02675793332938933</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01914361242287138</v>
+        <v>0.02448528543296291</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01860550993764146</v>
+        <v>0.02387037332384809</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01841023889518831</v>
+        <v>0.02264823811911284</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01795917517283499</v>
+        <v>0.02146299073695688</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01756371529948447</v>
+        <v>0.02075669050186326</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01728365863864195</v>
+        <v>0.02065637049722399</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01660389847926487</v>
+        <v>0.02054432274955757</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01635024825988327</v>
+        <v>0.0203925082325153</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01635024825988327</v>
+        <v>0.0201497411788545</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01598842139057651</v>
+        <v>0.02001426557541406</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01598842139057651</v>
+        <v>0.01989965703409005</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01598842139057651</v>
+        <v>0.01972918201977465</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01597224277457512</v>
+        <v>0.01965145442336613</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01583377735515007</v>
+        <v>0.01955368373692266</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01580070985858656</v>
+        <v>0.01955368373692266</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01574139256109792</v>
+        <v>0.01951839100663226</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5312933921813965</v>
+        <v>1.181975841522217</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>775.2565303326628</v>
+        <v>989.4438487007701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02608602654670392</v>
+        <v>0.03968322551281712</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0223985403507304</v>
+        <v>0.03346825714322793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02011222203093225</v>
+        <v>0.03008371194880819</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01904699152736205</v>
+        <v>0.02682484295747948</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01886329720307902</v>
+        <v>0.02535746759807733</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01827745157508133</v>
+        <v>0.02345338097423296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01827745157508133</v>
+        <v>0.02256340043935648</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0179762144906939</v>
+        <v>0.02168904992576079</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01664710538300715</v>
+        <v>0.02097170309220812</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01650296802066354</v>
+        <v>0.02083563057740072</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01650296802066354</v>
+        <v>0.02042853611714845</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01636419394695139</v>
+        <v>0.02007091744895419</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01595454432660061</v>
+        <v>0.01999997431897672</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0158678969646545</v>
+        <v>0.01988740403494265</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01553002158270828</v>
+        <v>0.01961823256148919</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01551894556156603</v>
+        <v>0.01955441791859682</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01537415003993115</v>
+        <v>0.01947593083432394</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01531354222624334</v>
+        <v>0.01938124661760669</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01525300206322401</v>
+        <v>0.01931736097766218</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0151122130669135</v>
+        <v>0.01928740445810468</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5624563694000244</v>
+        <v>1.2149977684021</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>820.0487380709783</v>
+        <v>986.370097212488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02563719997962122</v>
+        <v>0.04174793149721373</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02164900298313385</v>
+        <v>0.03285245352127707</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02072975242787048</v>
+        <v>0.02935052880679257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02000577949120131</v>
+        <v>0.0263539163865702</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01930235501259281</v>
+        <v>0.02421945397804682</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01930235501259281</v>
+        <v>0.02278446127313631</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01880554607114199</v>
+        <v>0.02244108419324938</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01831725960957782</v>
+        <v>0.02219732319866414</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01773085012811446</v>
+        <v>0.0216080221468091</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01735293645063792</v>
+        <v>0.02106008850045317</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01714591294686876</v>
+        <v>0.02045124275838433</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01689569087409396</v>
+        <v>0.0203322349552415</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01689569087409396</v>
+        <v>0.02004573571626416</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01673012066488883</v>
+        <v>0.01978224546020592</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01645162515193617</v>
+        <v>0.01958633834880578</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01638039478006954</v>
+        <v>0.01950516378817512</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01630653246013695</v>
+        <v>0.01936582754866368</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01622791324024736</v>
+        <v>0.01926845312489494</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01607319697080467</v>
+        <v>0.01925383469158044</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01598535551795279</v>
+        <v>0.01922748727509723</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5312776565551758</v>
+        <v>1.218042850494385</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>784.8310951907897</v>
+        <v>989.7979352131606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02591065669243635</v>
+        <v>0.04001055995749826</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02223379323731333</v>
+        <v>0.03364266510418969</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01956148053804881</v>
+        <v>0.02901757713427336</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01956148053804881</v>
+        <v>0.0269661440034435</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01842586507020793</v>
+        <v>0.02452092044445193</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01825037756084482</v>
+        <v>0.02333670132287987</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01768605830665944</v>
+        <v>0.02207766911025558</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01737462389079644</v>
+        <v>0.02155335795214891</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01737462389079644</v>
+        <v>0.02104000831757854</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01686365110993961</v>
+        <v>0.02079973669664029</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0166245181508477</v>
+        <v>0.02047784163912649</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01653245797374103</v>
+        <v>0.02032332700462483</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01623756744613675</v>
+        <v>0.0201842244155611</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01581101611768909</v>
+        <v>0.01997375946855839</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01581101611768909</v>
+        <v>0.0196723753602993</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01568520810985792</v>
+        <v>0.01958024164839501</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01558325028567654</v>
+        <v>0.01944107773493311</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01541198306736381</v>
+        <v>0.01936036923920216</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01541198306736381</v>
+        <v>0.01931113128457245</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01529885175810506</v>
+        <v>0.01929430672930137</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5312433242797852</v>
+        <v>1.20896053314209</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>773.7485516580746</v>
+        <v>984.4815462224342</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02636205806991246</v>
+        <v>0.04025615495786938</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02210941316145429</v>
+        <v>0.03429301675504807</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02093684523174621</v>
+        <v>0.03082658376381462</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01953744627446347</v>
+        <v>0.02828490031706784</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01776551551765731</v>
+        <v>0.02570282249671375</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01776551551765731</v>
+        <v>0.02450341871890199</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01713020684827979</v>
+        <v>0.02306546923632629</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01713020684827979</v>
+        <v>0.02244590991548217</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01662503900202453</v>
+        <v>0.02151823358891152</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01612980597521375</v>
+        <v>0.02085699246341139</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01612980597521375</v>
+        <v>0.02055315822850005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01568724239185356</v>
+        <v>0.02026570501564194</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01568724239185356</v>
+        <v>0.01979698254053091</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01563689501421372</v>
+        <v>0.01969860948853589</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01549039279099645</v>
+        <v>0.01956148205167468</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01530203783460348</v>
+        <v>0.01944850293428409</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01522993583452067</v>
+        <v>0.01934511578798931</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01515059117679526</v>
+        <v>0.01927560198324535</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01514320840494613</v>
+        <v>0.01924996479213307</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01508281777111256</v>
+        <v>0.01919067341564199</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5312361717224121</v>
+        <v>1.260037899017334</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>788.5689962475135</v>
+        <v>1004.306992222186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02569595041530975</v>
+        <v>0.04169666181192185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02247703006053823</v>
+        <v>0.03338760792510541</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02026064328427834</v>
+        <v>0.02979479767818656</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01912911677479032</v>
+        <v>0.02684148562643207</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01832675122114596</v>
+        <v>0.02516895329500047</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0174994554230277</v>
+        <v>0.02438405150638306</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01749289000651258</v>
+        <v>0.0236426744545179</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01688983031006103</v>
+        <v>0.02198416112209743</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01688983031006103</v>
+        <v>0.0216015318290662</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01688983031006103</v>
+        <v>0.02127513101388412</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01661882813474246</v>
+        <v>0.02093211773706319</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0165810115908937</v>
+        <v>0.02057922870695279</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01633641709761944</v>
+        <v>0.02036657310340947</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0159077036375726</v>
+        <v>0.02009966953595505</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01586056416672161</v>
+        <v>0.02001610919586396</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0158088269644679</v>
+        <v>0.01981686077639461</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01563120399426205</v>
+        <v>0.01970574792200365</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01555776964898225</v>
+        <v>0.01969576470663202</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01551727940997449</v>
+        <v>0.0196065997643732</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01537171532646225</v>
+        <v>0.01957713435130966</v>
       </c>
     </row>
   </sheetData>
